--- a/Testdata/LiveSLR_SmokeTest.xlsx
+++ b/Testdata/LiveSLR_SmokeTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA98810D-5BF5-418A-9931-48A9D2BEB623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8661A0ED-A577-4759-A73B-E159478918FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Population</t>
   </si>
@@ -247,67 +247,19 @@
     <t>NewImportLogic_1 - Test_Automation_1_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
-  </si>
-  <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-</t>
-  </si>
-  <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>Clinical</t>
   </si>
   <si>
     <t>Clinical_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
   </si>
   <si>
-    <t>\Testdata\Templates\SLRReport_SourceData\Expected_Source_Data_Manipulated.xlsx</t>
-  </si>
-  <si>
-    <t>ExpectedSourceTemplateFile_Word</t>
-  </si>
-  <si>
-    <t>ExpectedSourceTemplateFile_Excel</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SLRReport_SourceData\Expected_word_Data\Clinical.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SLRReport_SourceData\Expected_word_Data\Economic.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SLRReport_SourceData\Expected_word_Data\QOL.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\SLRReport_SourceData\Expected_word_Data\RWE.xlsx</t>
-  </si>
-  <si>
     <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-2023_</t>
   </si>
   <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Economic-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-2023_</t>
+    <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-</t>
   </si>
 </sst>
 </file>
@@ -625,31 +577,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="28.44140625" customWidth="1"/>
-    <col min="11" max="11" width="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,22 +625,16 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -698,10 +642,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -716,22 +660,16 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -744,20 +682,17 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>23</v>
       </c>
@@ -770,20 +705,17 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>29</v>
       </c>
@@ -797,190 +729,160 @@
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
         <v>36</v>
       </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
       <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
       <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
       <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
       <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
       <c r="K10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L18" t="s">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L19" t="s">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L20" t="s">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L21" t="s">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L22" t="s">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L23" t="s">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L24" t="s">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L25" t="s">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L26" t="s">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L27" t="s">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L28" t="s">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L29" t="s">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L30" t="s">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L31" t="s">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Testdata/LiveSLR_SmokeTest.xlsx
+++ b/Testdata/LiveSLR_SmokeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8661A0ED-A577-4759-A73B-E159478918FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55C15F3-77D8-4989-90A6-598F8675ECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,10 +256,10 @@
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
   </si>
   <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-2023_</t>
-  </si>
-  <si>
     <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -683,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>

--- a/Testdata/LiveSLR_SmokeTest.xlsx
+++ b/Testdata/LiveSLR_SmokeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7532681-E257-41F1-89F9-586F6A957181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08072395-4D0F-46AE-A393-0B4FB762C20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -159,27 +159,6 @@
   </si>
   <si>
     <t>intervention_section6_checkbox</t>
-  </si>
-  <si>
-    <t>scenario3</t>
-  </si>
-  <si>
-    <t>scenario4</t>
-  </si>
-  <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>Economic_radio_button</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Economic-2023_</t>
-  </si>
-  <si>
-    <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Economic-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
   </si>
   <si>
     <t>This filter allows you to select one of your project(s) to view. Only one SLR project can be selected at this step.</t>
@@ -555,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B1479-70F0-4B4E-BC73-42393FEE027A}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +582,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -635,7 +614,7 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -655,7 +634,7 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -675,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -692,16 +671,16 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -709,113 +688,67 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="I8" t="s">
-        <v>22</v>
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LiveSLR_SmokeTest.xlsx
+++ b/Testdata/LiveSLR_SmokeTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08072395-4D0F-46AE-A393-0B4FB762C20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817DD52D-47E6-4A20-B520-ED1014F09AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>ToolTip_Info</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Non-Oncology</t>
   </si>
 </sst>
 </file>
@@ -534,220 +543,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B1479-70F0-4B4E-BC73-42393FEE027A}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="166.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="166.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="I6" t="s">
+      <c r="B6" s="1"/>
+      <c r="J6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Testdata/LiveSLR_SmokeTest.xlsx
+++ b/Testdata/LiveSLR_SmokeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817DD52D-47E6-4A20-B520-ED1014F09AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A499DA6-4628-4CA2-A124-602E6C41ED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>Non-Oncology</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Test_Automation_1-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>WordReport-Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -543,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B1479-70F0-4B4E-BC73-42393FEE027A}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,6 +742,9 @@
       <c r="I7" t="s">
         <v>15</v>
       </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -741,6 +759,9 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -755,6 +776,9 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -768,6 +792,14 @@
       </c>
       <c r="I10" t="s">
         <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LiveSLR_SmokeTest.xlsx
+++ b/Testdata/LiveSLR_SmokeTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A499DA6-4628-4CA2-A124-602E6C41ED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C3DE0F-F4BC-4A3D-A781-5D0793B8E42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26C09FF1-B3A3-4547-AFE4-A3356FE600D6}"/>
   </bookViews>
@@ -77,15 +77,6 @@
     <t>sectionname</t>
   </si>
   <si>
-    <t>sub_pop_section1</t>
-  </si>
-  <si>
-    <t>sub_pop_section1_checkbox</t>
-  </si>
-  <si>
-    <t>sub_pop_section</t>
-  </si>
-  <si>
     <t>intervention_section4</t>
   </si>
   <si>
@@ -146,15 +137,6 @@
     <t>reported_variable_section1_checkbox</t>
   </si>
   <si>
-    <t>lot_section1</t>
-  </si>
-  <si>
-    <t>lot_section1_checkbox</t>
-  </si>
-  <si>
-    <t>lot_section</t>
-  </si>
-  <si>
     <t>intervention_section6</t>
   </si>
   <si>
@@ -198,6 +180,24 @@
   </si>
   <si>
     <t>StandardExcelReport-Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>pop_filter2_section</t>
+  </si>
+  <si>
+    <t>pop_filter2_section1</t>
+  </si>
+  <si>
+    <t>pop_filter2_section1_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter1_section</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter1_section1</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B1479-70F0-4B4E-BC73-42393FEE027A}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -606,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -617,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -632,19 +632,19 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -652,19 +652,19 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -672,19 +672,19 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -692,34 +692,34 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -734,72 +734,72 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
